--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,11 +8071,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8084,12 +8084,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,11 +8119,11 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8132,12 +8132,12 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -11892,14 +11892,10 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estudio de Impacto Ambiental Central Patache</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr"/>
       <c r="D241" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -11907,11 +11903,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
+          <t>Central Patache S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>270</v>
+        <v>150000</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11920,12 +11916,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11940,7 +11936,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
+          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,7 +11955,7 @@
         </is>
       </c>
       <c r="F242" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11973,7 +11969,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11988,10 +11984,14 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Central Patache</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr"/>
+          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D243" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -11999,11 +11999,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Central Patache S.A.</t>
+          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>150000</v>
+        <v>350</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12012,12 +12012,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -15580,7 +15580,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15590,16 +15590,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Portuaria de Iquique</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>200</v>
+        <v>4354</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15608,12 +15608,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15628,7 +15628,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15638,16 +15638,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Empresa Portuaria de Iquique</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>4354</v>
+        <v>200</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15656,12 +15656,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -20140,7 +20140,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
+          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20155,11 +20155,11 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Santa Marta Ltda.</t>
+          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>2500</v>
+        <v>1214</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20168,12 +20168,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20188,7 +20188,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
+          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20203,11 +20203,11 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
+          <t>Santa Marta Ltda.</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>1214</v>
+        <v>2500</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20216,12 +20216,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -23836,7 +23836,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
+          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -23851,11 +23851,11 @@
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Lucia Cáceres nuñez</t>
         </is>
       </c>
       <c r="F490" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G490" t="inlineStr">
         <is>
@@ -23869,7 +23869,7 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
@@ -23884,7 +23884,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
+          <t>Planta Emulsión - Explonor S.A.</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23899,11 +23899,11 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>Lucia Cáceres nuñez</t>
+          <t>EXPLONOR S.A.</t>
         </is>
       </c>
       <c r="F491" t="n">
-        <v>2500</v>
+        <v>200</v>
       </c>
       <c r="G491" t="inlineStr">
         <is>
@@ -23917,7 +23917,7 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
@@ -23932,7 +23932,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Planta Emulsión - Explonor S.A.</t>
+          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -23947,11 +23947,11 @@
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>EXPLONOR S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
         </is>
       </c>
       <c r="F492" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G492" t="inlineStr">
         <is>
@@ -23965,7 +23965,7 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,11 +8071,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8084,12 +8084,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,11 +8119,11 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8132,12 +8132,12 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -11892,10 +11892,14 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Central Patache</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr"/>
+          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D241" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -11903,11 +11907,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Central Patache S.A.</t>
+          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>150000</v>
+        <v>270</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11916,12 +11920,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11936,7 +11940,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
+          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11955,7 +11959,7 @@
         </is>
       </c>
       <c r="F242" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11969,7 +11973,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11984,14 +11988,10 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estudio de Impacto Ambiental Central Patache</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr"/>
       <c r="D243" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -11999,11 +11999,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
+          <t>Central Patache S.A.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>350</v>
+        <v>150000</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12012,12 +12012,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -15580,7 +15580,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15590,16 +15590,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Empresa Portuaria de Iquique</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>4354</v>
+        <v>200</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15608,12 +15608,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15628,7 +15628,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15638,16 +15638,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Portuaria de Iquique</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>200</v>
+        <v>4354</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15656,12 +15656,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -20140,7 +20140,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
+          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20155,11 +20155,11 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
+          <t>Santa Marta Ltda.</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>1214</v>
+        <v>2500</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20168,12 +20168,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20188,7 +20188,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
+          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20203,11 +20203,11 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Santa Marta Ltda.</t>
+          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>2500</v>
+        <v>1214</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20216,12 +20216,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -23836,7 +23836,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
+          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -23851,11 +23851,11 @@
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>Lucia Cáceres nuñez</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
         </is>
       </c>
       <c r="F490" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G490" t="inlineStr">
         <is>
@@ -23869,7 +23869,7 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
@@ -23884,7 +23884,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Planta Emulsión - Explonor S.A.</t>
+          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23899,11 +23899,11 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>EXPLONOR S.A.</t>
+          <t>Lucia Cáceres nuñez</t>
         </is>
       </c>
       <c r="F491" t="n">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="G491" t="inlineStr">
         <is>
@@ -23917,7 +23917,7 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
@@ -23932,7 +23932,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
+          <t>Planta Emulsión - Explonor S.A.</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -23947,11 +23947,11 @@
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>EXPLONOR S.A.</t>
         </is>
       </c>
       <c r="F492" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G492" t="inlineStr">
         <is>
@@ -23965,7 +23965,7 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,11 +8119,11 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8132,12 +8132,12 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -11940,10 +11940,14 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Central Patache</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr"/>
+          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D242" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -11951,11 +11955,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Central Patache S.A.</t>
+          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>150000</v>
+        <v>270</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11964,12 +11968,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11984,7 +11988,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
+          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12003,7 +12007,7 @@
         </is>
       </c>
       <c r="F243" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12017,7 +12021,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12032,14 +12036,10 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estudio de Impacto Ambiental Central Patache</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr"/>
       <c r="D244" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12047,11 +12047,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
+          <t>Central Patache S.A.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>350</v>
+        <v>150000</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12060,12 +12060,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -15628,7 +15628,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15638,16 +15638,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Empresa Portuaria de Iquique</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>4354</v>
+        <v>200</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15656,12 +15656,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15676,7 +15676,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15686,16 +15686,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Portuaria de Iquique</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>200</v>
+        <v>4354</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15704,12 +15704,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -20188,7 +20188,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
+          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20203,11 +20203,11 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
+          <t>Santa Marta Ltda.</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>1214</v>
+        <v>2500</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20216,12 +20216,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20236,7 +20236,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
+          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20251,11 +20251,11 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Santa Marta Ltda.</t>
+          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>2500</v>
+        <v>1214</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20264,12 +20264,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -23884,7 +23884,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
+          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23899,11 +23899,11 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>Lucia Cáceres nuñez</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
         </is>
       </c>
       <c r="F491" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G491" t="inlineStr">
         <is>
@@ -23917,7 +23917,7 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
@@ -23932,7 +23932,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Planta Emulsión - Explonor S.A.</t>
+          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -23947,11 +23947,11 @@
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>EXPLONOR S.A.</t>
+          <t>Lucia Cáceres nuñez</t>
         </is>
       </c>
       <c r="F492" t="n">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="G492" t="inlineStr">
         <is>
@@ -23965,7 +23965,7 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -23980,7 +23980,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
+          <t>Planta Emulsión - Explonor S.A.</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -23995,11 +23995,11 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>EXPLONOR S.A.</t>
         </is>
       </c>
       <c r="F493" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G493" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,11 +8119,11 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8132,12 +8132,12 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -11940,14 +11940,10 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estudio de Impacto Ambiental Central Patache</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr"/>
       <c r="D242" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -11955,11 +11951,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
+          <t>Central Patache S.A.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>270</v>
+        <v>150000</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11968,12 +11964,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11988,7 +11984,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
+          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,7 +12003,7 @@
         </is>
       </c>
       <c r="F243" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12021,7 +12017,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12036,10 +12032,14 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Central Patache</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr"/>
+          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D244" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12047,11 +12047,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Central Patache S.A.</t>
+          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>150000</v>
+        <v>350</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12060,12 +12060,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -15628,7 +15628,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15638,16 +15638,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Portuaria de Iquique</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>200</v>
+        <v>4354</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15656,12 +15656,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15676,7 +15676,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15686,16 +15686,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Empresa Portuaria de Iquique</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>4354</v>
+        <v>200</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15704,12 +15704,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -20188,7 +20188,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
+          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20203,11 +20203,11 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Santa Marta Ltda.</t>
+          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>2500</v>
+        <v>1214</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20216,12 +20216,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20236,7 +20236,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
+          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20251,11 +20251,11 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
+          <t>Santa Marta Ltda.</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>1214</v>
+        <v>2500</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20264,12 +20264,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -23884,7 +23884,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
+          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23899,11 +23899,11 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Lucia Cáceres nuñez</t>
         </is>
       </c>
       <c r="F491" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G491" t="inlineStr">
         <is>
@@ -23917,7 +23917,7 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
@@ -23932,7 +23932,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
+          <t>Planta Emulsión - Explonor S.A.</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -23947,11 +23947,11 @@
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>Lucia Cáceres nuñez</t>
+          <t>EXPLONOR S.A.</t>
         </is>
       </c>
       <c r="F492" t="n">
-        <v>2500</v>
+        <v>200</v>
       </c>
       <c r="G492" t="inlineStr">
         <is>
@@ -23965,7 +23965,7 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -23980,7 +23980,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Planta Emulsión - Explonor S.A.</t>
+          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -23995,11 +23995,11 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>EXPLONOR S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
         </is>
       </c>
       <c r="F493" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G493" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/02/2022</t>
+          <t>24/02/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,11 +8215,11 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -11988,10 +11988,14 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Central Patache</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr"/>
+          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D243" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -11999,11 +12003,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Central Patache S.A.</t>
+          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>150000</v>
+        <v>270</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12012,12 +12016,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12032,7 +12036,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
+          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12051,7 +12055,7 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12065,7 +12069,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12080,14 +12084,10 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estudio de Impacto Ambiental Central Patache</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr"/>
       <c r="D245" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12095,11 +12095,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
+          <t>Central Patache S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>350</v>
+        <v>150000</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12108,12 +12108,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -15676,7 +15676,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15686,16 +15686,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Empresa Portuaria de Iquique</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>4354</v>
+        <v>200</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15704,12 +15704,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15724,7 +15724,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15734,16 +15734,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Portuaria de Iquique</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>200</v>
+        <v>4354</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15752,12 +15752,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -20236,7 +20236,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
+          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20251,11 +20251,11 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
+          <t>Santa Marta Ltda.</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>1214</v>
+        <v>2500</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20264,12 +20264,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20284,7 +20284,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
+          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20299,11 +20299,11 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Santa Marta Ltda.</t>
+          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>2500</v>
+        <v>1214</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20312,12 +20312,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,11 +8215,11 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -11988,14 +11988,10 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estudio de Impacto Ambiental Central Patache</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr"/>
       <c r="D243" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12003,11 +11999,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
+          <t>Central Patache S.A.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>270</v>
+        <v>150000</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12016,12 +12012,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12036,7 +12032,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
+          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,7 +12051,7 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12069,7 +12065,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12084,10 +12080,14 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Central Patache</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr"/>
+          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D245" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12095,11 +12095,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Central Patache S.A.</t>
+          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>150000</v>
+        <v>350</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12108,12 +12108,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -15676,7 +15676,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15686,16 +15686,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Portuaria de Iquique</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>200</v>
+        <v>4354</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15704,12 +15704,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15724,7 +15724,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15734,16 +15734,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Empresa Portuaria de Iquique</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>4354</v>
+        <v>200</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15752,12 +15752,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -20236,7 +20236,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
+          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20251,11 +20251,11 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Santa Marta Ltda.</t>
+          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>2500</v>
+        <v>1214</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20264,12 +20264,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20284,7 +20284,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
+          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20299,11 +20299,11 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
+          <t>Santa Marta Ltda.</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>1214</v>
+        <v>2500</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20312,12 +20312,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,11 +8215,11 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -11988,10 +11988,14 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Central Patache</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr"/>
+          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D243" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -11999,11 +12003,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Central Patache S.A.</t>
+          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>150000</v>
+        <v>270</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12012,12 +12016,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12032,7 +12036,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
+          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12051,7 +12055,7 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12065,7 +12069,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12080,14 +12084,10 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estudio de Impacto Ambiental Central Patache</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr"/>
       <c r="D245" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12095,11 +12095,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
+          <t>Central Patache S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>350</v>
+        <v>150000</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12108,12 +12108,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -15676,7 +15676,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15686,16 +15686,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Empresa Portuaria de Iquique</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>4354</v>
+        <v>200</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15704,12 +15704,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15724,7 +15724,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15734,16 +15734,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Portuaria de Iquique</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>200</v>
+        <v>4354</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15752,12 +15752,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -20236,7 +20236,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
+          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20251,11 +20251,11 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
+          <t>Santa Marta Ltda.</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>1214</v>
+        <v>2500</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20264,12 +20264,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20284,7 +20284,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
+          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20299,11 +20299,11 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Santa Marta Ltda.</t>
+          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>2500</v>
+        <v>1214</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20312,12 +20312,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -23932,7 +23932,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
+          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -23947,11 +23947,11 @@
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>Lucia Cáceres nuñez</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
         </is>
       </c>
       <c r="F492" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G492" t="inlineStr">
         <is>
@@ -23965,7 +23965,7 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -23980,7 +23980,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Planta Emulsión - Explonor S.A.</t>
+          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -23995,11 +23995,11 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>EXPLONOR S.A.</t>
+          <t>Lucia Cáceres nuñez</t>
         </is>
       </c>
       <c r="F493" t="n">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="G493" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
@@ -24028,7 +24028,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
+          <t>Planta Emulsión - Explonor S.A.</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -24043,11 +24043,11 @@
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>EXPLONOR S.A.</t>
         </is>
       </c>
       <c r="F494" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G494" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,11 +8215,11 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -11988,14 +11988,10 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estudio de Impacto Ambiental Central Patache</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr"/>
       <c r="D243" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12003,11 +11999,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
+          <t>Central Patache S.A.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>270</v>
+        <v>150000</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12016,12 +12012,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12036,7 +12032,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
+          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,7 +12051,7 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12069,7 +12065,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12084,10 +12080,14 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Central Patache</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr"/>
+          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D245" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12095,11 +12095,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Central Patache S.A.</t>
+          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>150000</v>
+        <v>350</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12108,12 +12108,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -15676,7 +15676,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15686,16 +15686,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Portuaria de Iquique</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>200</v>
+        <v>4354</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15704,12 +15704,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15724,7 +15724,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15734,16 +15734,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Empresa Portuaria de Iquique</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>4354</v>
+        <v>200</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15752,12 +15752,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -20236,7 +20236,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
+          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20251,11 +20251,11 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Santa Marta Ltda.</t>
+          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>2500</v>
+        <v>1214</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20264,12 +20264,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20284,7 +20284,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
+          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20299,11 +20299,11 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
+          <t>Santa Marta Ltda.</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>1214</v>
+        <v>2500</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20312,12 +20312,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -23932,7 +23932,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
+          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -23947,11 +23947,11 @@
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Lucia Cáceres nuñez</t>
         </is>
       </c>
       <c r="F492" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G492" t="inlineStr">
         <is>
@@ -23965,7 +23965,7 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -23980,7 +23980,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
+          <t>Planta Emulsión - Explonor S.A.</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -23995,11 +23995,11 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>Lucia Cáceres nuñez</t>
+          <t>EXPLONOR S.A.</t>
         </is>
       </c>
       <c r="F493" t="n">
-        <v>2500</v>
+        <v>200</v>
       </c>
       <c r="G493" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
@@ -24028,7 +24028,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Planta Emulsión - Explonor S.A.</t>
+          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -24043,11 +24043,11 @@
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>EXPLONOR S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
         </is>
       </c>
       <c r="F494" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G494" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,11 +8215,11 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -11988,10 +11988,14 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Central Patache</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr"/>
+          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D243" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -11999,11 +12003,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Central Patache S.A.</t>
+          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>150000</v>
+        <v>270</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12012,12 +12016,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12032,7 +12036,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
+          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12051,7 +12055,7 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12065,7 +12069,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12080,14 +12084,10 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estudio de Impacto Ambiental Central Patache</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr"/>
       <c r="D245" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12095,11 +12095,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
+          <t>Central Patache S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>350</v>
+        <v>150000</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12108,12 +12108,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -15676,7 +15676,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15686,16 +15686,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Empresa Portuaria de Iquique</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>4354</v>
+        <v>200</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15704,12 +15704,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15724,7 +15724,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15734,16 +15734,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Portuaria de Iquique</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>200</v>
+        <v>4354</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15752,12 +15752,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -20236,7 +20236,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
+          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20251,11 +20251,11 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
+          <t>Santa Marta Ltda.</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>1214</v>
+        <v>2500</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20264,12 +20264,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20284,7 +20284,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
+          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20299,11 +20299,11 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Santa Marta Ltda.</t>
+          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>2500</v>
+        <v>1214</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20312,12 +20312,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -23932,7 +23932,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
+          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -23947,11 +23947,11 @@
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>Lucia Cáceres nuñez</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
         </is>
       </c>
       <c r="F492" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G492" t="inlineStr">
         <is>
@@ -23965,7 +23965,7 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -23980,7 +23980,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Planta Emulsión - Explonor S.A.</t>
+          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -23995,11 +23995,11 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>EXPLONOR S.A.</t>
+          <t>Lucia Cáceres nuñez</t>
         </is>
       </c>
       <c r="F493" t="n">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="G493" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
@@ -24028,7 +24028,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
+          <t>Planta Emulsión - Explonor S.A.</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -24043,11 +24043,11 @@
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>EXPLONOR S.A.</t>
         </is>
       </c>
       <c r="F494" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G494" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>07/03/2022</t>
+          <t>14/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,11 +8215,11 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -11988,14 +11988,10 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estudio de Impacto Ambiental Central Patache</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr"/>
       <c r="D243" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12003,11 +11999,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
+          <t>Central Patache S.A.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>270</v>
+        <v>150000</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12016,12 +12012,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12036,7 +12032,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
+          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,7 +12051,7 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12069,7 +12065,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12084,10 +12080,14 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Central Patache</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr"/>
+          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D245" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12095,11 +12095,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Central Patache S.A.</t>
+          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>150000</v>
+        <v>350</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12108,12 +12108,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -15676,7 +15676,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15686,16 +15686,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Portuaria de Iquique</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>200</v>
+        <v>4354</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15704,12 +15704,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15724,7 +15724,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15734,16 +15734,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Empresa Portuaria de Iquique</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>4354</v>
+        <v>200</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15752,12 +15752,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -20236,7 +20236,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
+          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20251,11 +20251,11 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Santa Marta Ltda.</t>
+          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>2500</v>
+        <v>1214</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20264,12 +20264,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20284,7 +20284,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
+          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20299,11 +20299,11 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
+          <t>Santa Marta Ltda.</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>1214</v>
+        <v>2500</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20312,12 +20312,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -23932,7 +23932,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
+          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -23947,11 +23947,11 @@
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Lucia Cáceres nuñez</t>
         </is>
       </c>
       <c r="F492" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G492" t="inlineStr">
         <is>
@@ -23965,7 +23965,7 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -23980,7 +23980,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
+          <t>Planta Emulsión - Explonor S.A.</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -23995,11 +23995,11 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>Lucia Cáceres nuñez</t>
+          <t>EXPLONOR S.A.</t>
         </is>
       </c>
       <c r="F493" t="n">
-        <v>2500</v>
+        <v>200</v>
       </c>
       <c r="G493" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
@@ -24028,7 +24028,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Planta Emulsión - Explonor S.A.</t>
+          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -24043,11 +24043,11 @@
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>EXPLONOR S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
         </is>
       </c>
       <c r="F494" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G494" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -740,7 +740,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,11 +8215,11 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -11988,14 +11988,10 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estudio de Impacto Ambiental Central Patache</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr"/>
       <c r="D243" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12003,11 +11999,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
+          <t>Central Patache S.A.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>270</v>
+        <v>150000</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12016,12 +12012,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12036,7 +12032,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
+          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,7 +12051,7 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12069,7 +12065,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12084,10 +12080,14 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Central Patache</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr"/>
+          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D245" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12095,11 +12095,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Central Patache S.A.</t>
+          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>150000</v>
+        <v>350</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12108,12 +12108,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -15676,7 +15676,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15686,16 +15686,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Portuaria de Iquique</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>200</v>
+        <v>4354</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15704,12 +15704,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15724,7 +15724,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15734,16 +15734,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Empresa Portuaria de Iquique</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>4354</v>
+        <v>200</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15752,12 +15752,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -20236,7 +20236,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
+          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20251,11 +20251,11 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Santa Marta Ltda.</t>
+          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>2500</v>
+        <v>1214</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20264,12 +20264,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20284,7 +20284,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
+          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20299,11 +20299,11 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
+          <t>Santa Marta Ltda.</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>1214</v>
+        <v>2500</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20312,12 +20312,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -23932,7 +23932,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
+          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -23947,11 +23947,11 @@
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Lucia Cáceres nuñez</t>
         </is>
       </c>
       <c r="F492" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G492" t="inlineStr">
         <is>
@@ -23965,7 +23965,7 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -23980,7 +23980,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
+          <t>Planta Emulsión - Explonor S.A.</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -23995,11 +23995,11 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>Lucia Cáceres nuñez</t>
+          <t>EXPLONOR S.A.</t>
         </is>
       </c>
       <c r="F493" t="n">
-        <v>2500</v>
+        <v>200</v>
       </c>
       <c r="G493" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
@@ -24028,7 +24028,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Planta Emulsión - Explonor S.A.</t>
+          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -24043,11 +24043,11 @@
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>EXPLONOR S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
         </is>
       </c>
       <c r="F494" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G494" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,11 +8215,11 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -12036,10 +12036,14 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Central Patache</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr"/>
+          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D244" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12047,11 +12051,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Central Patache S.A.</t>
+          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>150000</v>
+        <v>270</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12060,12 +12064,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12080,7 +12084,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
+          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12099,7 +12103,7 @@
         </is>
       </c>
       <c r="F245" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12113,7 +12117,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12128,14 +12132,10 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estudio de Impacto Ambiental Central Patache</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr"/>
       <c r="D246" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12143,11 +12143,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
+          <t>Central Patache S.A.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>350</v>
+        <v>150000</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12156,12 +12156,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -15724,7 +15724,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15734,16 +15734,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Empresa Portuaria de Iquique</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>4354</v>
+        <v>200</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15752,12 +15752,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15772,7 +15772,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15782,16 +15782,16 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Portuaria de Iquique</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>200</v>
+        <v>4354</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15800,12 +15800,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -20284,7 +20284,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
+          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20299,11 +20299,11 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
+          <t>Santa Marta Ltda.</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>1214</v>
+        <v>2500</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20312,12 +20312,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20332,7 +20332,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
+          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20347,11 +20347,11 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Santa Marta Ltda.</t>
+          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>2500</v>
+        <v>1214</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20360,12 +20360,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -23980,7 +23980,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
+          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -23995,11 +23995,11 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>Lucia Cáceres nuñez</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
         </is>
       </c>
       <c r="F493" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G493" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
@@ -24028,7 +24028,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Planta Emulsión - Explonor S.A.</t>
+          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -24043,11 +24043,11 @@
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>EXPLONOR S.A.</t>
+          <t>Lucia Cáceres nuñez</t>
         </is>
       </c>
       <c r="F494" t="n">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="G494" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
@@ -24076,7 +24076,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
+          <t>Planta Emulsión - Explonor S.A.</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -24091,11 +24091,11 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>EXPLONOR S.A.</t>
         </is>
       </c>
       <c r="F495" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G495" t="inlineStr">
         <is>
@@ -24109,7 +24109,7 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,11 +8215,11 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -12036,14 +12036,10 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estudio de Impacto Ambiental Central Patache</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr"/>
       <c r="D244" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12051,11 +12047,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
+          <t>Central Patache S.A.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>270</v>
+        <v>150000</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12064,12 +12060,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12084,7 +12080,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
+          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,7 +12099,7 @@
         </is>
       </c>
       <c r="F245" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12117,7 +12113,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12132,10 +12128,14 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Central Patache</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr"/>
+          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D246" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12143,11 +12143,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Central Patache S.A.</t>
+          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>150000</v>
+        <v>350</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12156,12 +12156,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -15724,7 +15724,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15734,16 +15734,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Portuaria de Iquique</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>200</v>
+        <v>4354</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15752,12 +15752,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15772,7 +15772,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15782,16 +15782,16 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Empresa Portuaria de Iquique</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>4354</v>
+        <v>200</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15800,12 +15800,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -20284,7 +20284,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
+          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20299,11 +20299,11 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Santa Marta Ltda.</t>
+          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>2500</v>
+        <v>1214</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20312,12 +20312,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20332,7 +20332,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
+          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20347,11 +20347,11 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
+          <t>Santa Marta Ltda.</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>1214</v>
+        <v>2500</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20360,12 +20360,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -23980,7 +23980,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
+          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -23995,11 +23995,11 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Lucia Cáceres nuñez</t>
         </is>
       </c>
       <c r="F493" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G493" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
@@ -24028,7 +24028,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
+          <t>Planta Emulsión - Explonor S.A.</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -24043,11 +24043,11 @@
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>Lucia Cáceres nuñez</t>
+          <t>EXPLONOR S.A.</t>
         </is>
       </c>
       <c r="F494" t="n">
-        <v>2500</v>
+        <v>200</v>
       </c>
       <c r="G494" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
@@ -24076,7 +24076,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Planta Emulsión - Explonor S.A.</t>
+          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -24091,11 +24091,11 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>EXPLONOR S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
         </is>
       </c>
       <c r="F495" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G495" t="inlineStr">
         <is>
@@ -24109,7 +24109,7 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>31/03/2022</t>
+          <t>18/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/05/2022</t>
+          <t>18/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,11 +8311,11 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -12084,10 +12084,14 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Central Patache</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr"/>
+          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D245" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12095,11 +12099,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Central Patache S.A.</t>
+          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>150000</v>
+        <v>270</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12108,12 +12112,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12128,7 +12132,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
+          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12147,7 +12151,7 @@
         </is>
       </c>
       <c r="F246" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12161,7 +12165,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12176,14 +12180,10 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estudio de Impacto Ambiental Central Patache</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr"/>
       <c r="D247" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12191,11 +12191,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
+          <t>Central Patache S.A.</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>350</v>
+        <v>150000</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12204,12 +12204,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -15772,7 +15772,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15782,16 +15782,16 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Empresa Portuaria de Iquique</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>4354</v>
+        <v>200</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15800,12 +15800,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15820,7 +15820,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15830,16 +15830,16 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Portuaria de Iquique</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>200</v>
+        <v>4354</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15848,12 +15848,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -20332,7 +20332,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
+          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20347,11 +20347,11 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
+          <t>Santa Marta Ltda.</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>1214</v>
+        <v>2500</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20360,12 +20360,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20380,7 +20380,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
+          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20395,11 +20395,11 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Santa Marta Ltda.</t>
+          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>2500</v>
+        <v>1214</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20408,12 +20408,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -24028,7 +24028,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
+          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -24043,11 +24043,11 @@
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>Lucia Cáceres nuñez</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
         </is>
       </c>
       <c r="F494" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G494" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
@@ -24076,7 +24076,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Planta Emulsión - Explonor S.A.</t>
+          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -24091,11 +24091,11 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>EXPLONOR S.A.</t>
+          <t>Lucia Cáceres nuñez</t>
         </is>
       </c>
       <c r="F495" t="n">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="G495" t="inlineStr">
         <is>
@@ -24109,7 +24109,7 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
@@ -24124,7 +24124,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
+          <t>Planta Emulsión - Explonor S.A.</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -24139,11 +24139,11 @@
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>EXPLONOR S.A.</t>
         </is>
       </c>
       <c r="F496" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G496" t="inlineStr">
         <is>
@@ -24157,7 +24157,7 @@
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,11 +8311,11 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -12084,14 +12084,10 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estudio de Impacto Ambiental Central Patache</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr"/>
       <c r="D245" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12099,11 +12095,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
+          <t>Central Patache S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>270</v>
+        <v>150000</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12112,12 +12108,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12132,7 +12128,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
+          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,7 +12147,7 @@
         </is>
       </c>
       <c r="F246" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12165,7 +12161,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12180,10 +12176,14 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Central Patache</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr"/>
+          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D247" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12191,11 +12191,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Central Patache S.A.</t>
+          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>150000</v>
+        <v>350</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12204,12 +12204,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -15772,7 +15772,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15782,16 +15782,16 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Portuaria de Iquique</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>200</v>
+        <v>4354</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15800,12 +15800,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15820,7 +15820,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15830,16 +15830,16 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Empresa Portuaria de Iquique</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>4354</v>
+        <v>200</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15848,12 +15848,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -20332,7 +20332,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
+          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20347,11 +20347,11 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Santa Marta Ltda.</t>
+          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>2500</v>
+        <v>1214</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20360,12 +20360,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20380,7 +20380,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
+          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20395,11 +20395,11 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
+          <t>Santa Marta Ltda.</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>1214</v>
+        <v>2500</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20408,12 +20408,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -24028,7 +24028,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
+          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -24043,11 +24043,11 @@
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Lucia Cáceres nuñez</t>
         </is>
       </c>
       <c r="F494" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G494" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
@@ -24076,7 +24076,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
+          <t>Planta Emulsión - Explonor S.A.</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -24091,11 +24091,11 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>Lucia Cáceres nuñez</t>
+          <t>EXPLONOR S.A.</t>
         </is>
       </c>
       <c r="F495" t="n">
-        <v>2500</v>
+        <v>200</v>
       </c>
       <c r="G495" t="inlineStr">
         <is>
@@ -24109,7 +24109,7 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
@@ -24124,7 +24124,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Planta Emulsión - Explonor S.A.</t>
+          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -24139,11 +24139,11 @@
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>EXPLONOR S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
         </is>
       </c>
       <c r="F496" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G496" t="inlineStr">
         <is>
@@ -24157,7 +24157,7 @@
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13/05/2022</t>
+          <t>17/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/06/2022</t>
+          <t>23/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,11 +8311,11 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -12084,14 +12084,10 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estudio de Impacto Ambiental Central Patache</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr"/>
       <c r="D245" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12099,11 +12095,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
+          <t>Central Patache S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>270</v>
+        <v>150000</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12112,12 +12108,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12132,7 +12128,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
+          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,7 +12147,7 @@
         </is>
       </c>
       <c r="F246" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12165,7 +12161,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12180,10 +12176,14 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Central Patache</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr"/>
+          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D247" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12191,11 +12191,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Central Patache S.A.</t>
+          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>150000</v>
+        <v>350</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12204,12 +12204,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -15772,7 +15772,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15782,16 +15782,16 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Portuaria de Iquique</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>200</v>
+        <v>4354</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15800,12 +15800,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15820,7 +15820,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15830,16 +15830,16 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Empresa Portuaria de Iquique</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>4354</v>
+        <v>200</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15848,12 +15848,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -20332,7 +20332,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
+          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20347,11 +20347,11 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Santa Marta Ltda.</t>
+          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>2500</v>
+        <v>1214</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20360,12 +20360,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20380,7 +20380,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
+          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20395,11 +20395,11 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
+          <t>Santa Marta Ltda.</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>1214</v>
+        <v>2500</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20408,12 +20408,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -24028,7 +24028,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
+          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -24043,11 +24043,11 @@
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Lucia Cáceres nuñez</t>
         </is>
       </c>
       <c r="F494" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G494" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
@@ -24076,7 +24076,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
+          <t>Planta Emulsión - Explonor S.A.</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -24091,11 +24091,11 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>Lucia Cáceres nuñez</t>
+          <t>EXPLONOR S.A.</t>
         </is>
       </c>
       <c r="F495" t="n">
-        <v>2500</v>
+        <v>200</v>
       </c>
       <c r="G495" t="inlineStr">
         <is>
@@ -24109,7 +24109,7 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
@@ -24124,7 +24124,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Planta Emulsión - Explonor S.A.</t>
+          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -24139,11 +24139,11 @@
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>EXPLONOR S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
         </is>
       </c>
       <c r="F496" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G496" t="inlineStr">
         <is>
@@ -24157,7 +24157,7 @@
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,11 +8311,11 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -12132,14 +12132,10 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estudio de Impacto Ambiental Central Patache</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr"/>
       <c r="D246" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12147,11 +12143,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
+          <t>Central Patache S.A.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>270</v>
+        <v>150000</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12160,12 +12156,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12180,7 +12176,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
+          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12199,7 +12195,7 @@
         </is>
       </c>
       <c r="F247" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12213,7 +12209,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12228,10 +12224,14 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Central Patache</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr"/>
+          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D248" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12239,11 +12239,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Central Patache S.A.</t>
+          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>150000</v>
+        <v>350</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12252,12 +12252,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -15820,7 +15820,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15830,16 +15830,16 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Portuaria de Iquique</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>200</v>
+        <v>4354</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15848,12 +15848,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15868,7 +15868,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15878,16 +15878,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Empresa Portuaria de Iquique</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>4354</v>
+        <v>200</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15896,12 +15896,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -20380,7 +20380,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
+          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20395,11 +20395,11 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Santa Marta Ltda.</t>
+          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>2500</v>
+        <v>1214</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20408,12 +20408,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20428,7 +20428,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
+          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20443,11 +20443,11 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
+          <t>Santa Marta Ltda.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>1214</v>
+        <v>2500</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20456,12 +20456,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,11 +8311,11 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -12132,10 +12132,14 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Central Patache</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr"/>
+          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D246" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12143,11 +12147,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Central Patache S.A.</t>
+          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>150000</v>
+        <v>270</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12156,12 +12160,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12176,7 +12180,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
+          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12195,7 +12199,7 @@
         </is>
       </c>
       <c r="F247" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12209,7 +12213,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12224,14 +12228,10 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estudio de Impacto Ambiental Central Patache</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr"/>
       <c r="D248" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12239,11 +12239,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
+          <t>Central Patache S.A.</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>350</v>
+        <v>150000</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12252,12 +12252,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -15820,7 +15820,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15830,16 +15830,16 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Empresa Portuaria de Iquique</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>4354</v>
+        <v>200</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15848,12 +15848,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15868,7 +15868,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15878,16 +15878,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Portuaria de Iquique</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>200</v>
+        <v>4354</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15896,12 +15896,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -20380,7 +20380,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
+          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20395,11 +20395,11 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
+          <t>Santa Marta Ltda.</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>1214</v>
+        <v>2500</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20408,12 +20408,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20428,7 +20428,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
+          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20443,11 +20443,11 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Santa Marta Ltda.</t>
+          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>2500</v>
+        <v>1214</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20456,12 +20456,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/06/2022</t>
+          <t>28/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,11 +8407,11 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -12180,10 +12180,14 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Central Patache</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr"/>
+          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D247" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12191,11 +12195,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Central Patache S.A.</t>
+          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>150000</v>
+        <v>270</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12204,12 +12208,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12224,7 +12228,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
+          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12243,7 +12247,7 @@
         </is>
       </c>
       <c r="F248" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12257,7 +12261,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12272,14 +12276,10 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estudio de Impacto Ambiental Central Patache</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr"/>
       <c r="D249" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12287,11 +12287,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
+          <t>Central Patache S.A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>350</v>
+        <v>150000</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12300,12 +12300,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -15868,7 +15868,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15878,16 +15878,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Empresa Portuaria de Iquique</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>4354</v>
+        <v>200</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15896,12 +15896,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15916,7 +15916,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15926,16 +15926,16 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Portuaria de Iquique</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>200</v>
+        <v>4354</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15944,12 +15944,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -20428,7 +20428,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
+          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20443,11 +20443,11 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
+          <t>Santa Marta Ltda.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>1214</v>
+        <v>2500</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20456,12 +20456,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20476,7 +20476,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
+          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20491,11 +20491,11 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Santa Marta Ltda.</t>
+          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>2500</v>
+        <v>1214</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20504,12 +20504,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/09/2022</t>
+          <t>22/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,11 +8407,11 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -12180,14 +12180,10 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estudio de Impacto Ambiental Central Patache</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr"/>
       <c r="D247" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12195,11 +12191,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
+          <t>Central Patache S.A.</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>270</v>
+        <v>150000</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12208,12 +12204,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12228,7 +12224,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
+          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,7 +12243,7 @@
         </is>
       </c>
       <c r="F248" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12261,7 +12257,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12276,10 +12272,14 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Central Patache</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr"/>
+          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D249" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12287,11 +12287,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Central Patache S.A.</t>
+          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>150000</v>
+        <v>350</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12300,12 +12300,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -15868,7 +15868,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15878,16 +15878,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Portuaria de Iquique</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>200</v>
+        <v>4354</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15896,12 +15896,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15916,7 +15916,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15926,16 +15926,16 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Empresa Portuaria de Iquique</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>4354</v>
+        <v>200</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15944,12 +15944,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -20428,7 +20428,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
+          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20443,11 +20443,11 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Santa Marta Ltda.</t>
+          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>2500</v>
+        <v>1214</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20456,12 +20456,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20476,7 +20476,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
+          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20491,11 +20491,11 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
+          <t>Santa Marta Ltda.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>1214</v>
+        <v>2500</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20504,12 +20504,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,11 +8407,11 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -12180,14 +12180,10 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estudio de Impacto Ambiental Central Patache</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr"/>
       <c r="D247" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12195,11 +12191,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
+          <t>Central Patache S.A.</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>270</v>
+        <v>150000</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12208,12 +12204,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12228,7 +12224,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
+          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,7 +12243,7 @@
         </is>
       </c>
       <c r="F248" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12261,7 +12257,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12276,10 +12272,14 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Central Patache</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr"/>
+          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D249" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12287,11 +12287,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Central Patache S.A.</t>
+          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>150000</v>
+        <v>350</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12300,12 +12300,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -15868,7 +15868,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15878,16 +15878,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Portuaria de Iquique</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>200</v>
+        <v>4354</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15896,12 +15896,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15916,7 +15916,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15926,16 +15926,16 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Empresa Portuaria de Iquique</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>4354</v>
+        <v>200</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15944,12 +15944,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -20428,7 +20428,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
+          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20443,11 +20443,11 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Santa Marta Ltda.</t>
+          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>2500</v>
+        <v>1214</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20456,12 +20456,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20476,7 +20476,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
+          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20491,11 +20491,11 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
+          <t>Santa Marta Ltda.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>1214</v>
+        <v>2500</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20504,12 +20504,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,11 +8407,11 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,11 +8455,11 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -12228,14 +12228,10 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estudio de Impacto Ambiental Central Patache</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr"/>
       <c r="D248" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12243,11 +12239,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
+          <t>Central Patache S.A.</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>270</v>
+        <v>150000</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12256,12 +12252,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12276,7 +12272,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
+          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12295,7 +12291,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12309,7 +12305,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12324,10 +12320,14 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Central Patache</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr"/>
+          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D250" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12335,11 +12335,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Central Patache S.A.</t>
+          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>150000</v>
+        <v>350</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12348,12 +12348,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -15916,7 +15916,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15926,16 +15926,16 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Portuaria de Iquique</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>200</v>
+        <v>4354</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15944,12 +15944,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15964,7 +15964,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15974,16 +15974,16 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Empresa Portuaria de Iquique</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>4354</v>
+        <v>200</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -15992,12 +15992,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -20476,7 +20476,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
+          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20491,11 +20491,11 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Santa Marta Ltda.</t>
+          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>2500</v>
+        <v>1214</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20504,12 +20504,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20524,7 +20524,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
+          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20539,11 +20539,11 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
+          <t>Santa Marta Ltda.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>1214</v>
+        <v>2500</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20552,12 +20552,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -24172,7 +24172,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
+          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -24187,11 +24187,11 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Lucia Cáceres nuñez</t>
         </is>
       </c>
       <c r="F497" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G497" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
@@ -24220,7 +24220,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
+          <t>Planta Emulsión - Explonor S.A.</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -24235,11 +24235,11 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>Lucia Cáceres nuñez</t>
+          <t>EXPLONOR S.A.</t>
         </is>
       </c>
       <c r="F498" t="n">
-        <v>2500</v>
+        <v>200</v>
       </c>
       <c r="G498" t="inlineStr">
         <is>
@@ -24253,7 +24253,7 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
@@ -24268,7 +24268,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Planta Emulsión - Explonor S.A.</t>
+          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24283,11 +24283,11 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>EXPLONOR S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
         </is>
       </c>
       <c r="F499" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G499" t="inlineStr">
         <is>
@@ -24301,7 +24301,7 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,11 +8407,11 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,11 +8455,11 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -12228,10 +12228,14 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Central Patache</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr"/>
+          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D248" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12239,11 +12243,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Central Patache S.A.</t>
+          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>150000</v>
+        <v>270</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12252,12 +12256,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12272,7 +12276,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
+          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12291,7 +12295,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12305,7 +12309,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12320,14 +12324,10 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estudio de Impacto Ambiental Central Patache</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr"/>
       <c r="D250" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12335,11 +12335,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
+          <t>Central Patache S.A.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>350</v>
+        <v>150000</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12348,12 +12348,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -15916,7 +15916,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15926,16 +15926,16 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Empresa Portuaria de Iquique</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>4354</v>
+        <v>200</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15944,12 +15944,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15964,7 +15964,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15974,16 +15974,16 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Portuaria de Iquique</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>200</v>
+        <v>4354</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -15992,12 +15992,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -20476,7 +20476,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
+          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20491,11 +20491,11 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
+          <t>Santa Marta Ltda.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>1214</v>
+        <v>2500</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20504,12 +20504,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20524,7 +20524,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
+          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20539,11 +20539,11 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Santa Marta Ltda.</t>
+          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>2500</v>
+        <v>1214</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20552,12 +20552,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -24172,7 +24172,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
+          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -24187,11 +24187,11 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>Lucia Cáceres nuñez</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
         </is>
       </c>
       <c r="F497" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G497" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
@@ -24220,7 +24220,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Planta Emulsión - Explonor S.A.</t>
+          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -24235,11 +24235,11 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>EXPLONOR S.A.</t>
+          <t>Lucia Cáceres nuñez</t>
         </is>
       </c>
       <c r="F498" t="n">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="G498" t="inlineStr">
         <is>
@@ -24253,7 +24253,7 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
@@ -24268,7 +24268,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
+          <t>Planta Emulsión - Explonor S.A.</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24283,11 +24283,11 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>EXPLONOR S.A.</t>
         </is>
       </c>
       <c r="F499" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G499" t="inlineStr">
         <is>
@@ -24301,7 +24301,7 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,11 +8455,11 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -12276,10 +12276,14 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Central Patache</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr"/>
+          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D249" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12287,11 +12291,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Central Patache S.A.</t>
+          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>150000</v>
+        <v>270</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12300,12 +12304,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12320,7 +12324,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
+          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12339,7 +12343,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12353,7 +12357,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12368,14 +12372,10 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estudio de Impacto Ambiental Central Patache</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr"/>
       <c r="D251" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12383,11 +12383,11 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
+          <t>Central Patache S.A.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>350</v>
+        <v>150000</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12396,12 +12396,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -15964,7 +15964,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15974,16 +15974,16 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Empresa Portuaria de Iquique</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>4354</v>
+        <v>200</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -15992,12 +15992,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16012,7 +16012,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16022,16 +16022,16 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Portuaria de Iquique</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>200</v>
+        <v>4354</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16040,12 +16040,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -20524,7 +20524,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
+          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20539,11 +20539,11 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
+          <t>Santa Marta Ltda.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>1214</v>
+        <v>2500</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20552,12 +20552,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20572,7 +20572,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
+          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20587,11 +20587,11 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Santa Marta Ltda.</t>
+          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>2500</v>
+        <v>1214</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20600,12 +20600,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -24220,7 +24220,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
+          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -24235,11 +24235,11 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>Lucia Cáceres nuñez</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
         </is>
       </c>
       <c r="F498" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G498" t="inlineStr">
         <is>
@@ -24253,7 +24253,7 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
@@ -24268,7 +24268,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Planta Emulsión - Explonor S.A.</t>
+          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24283,11 +24283,11 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>EXPLONOR S.A.</t>
+          <t>Lucia Cáceres nuñez</t>
         </is>
       </c>
       <c r="F499" t="n">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="G499" t="inlineStr">
         <is>
@@ -24301,7 +24301,7 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -24316,7 +24316,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
+          <t>Planta Emulsión - Explonor S.A.</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24331,11 +24331,11 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>EXPLONOR S.A.</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,11 +8455,11 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -12276,14 +12276,10 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estudio de Impacto Ambiental Central Patache</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr"/>
       <c r="D249" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12291,11 +12287,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
+          <t>Central Patache S.A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>270</v>
+        <v>150000</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12304,12 +12300,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12324,7 +12320,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
+          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12343,7 +12339,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12357,7 +12353,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12372,10 +12368,14 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Central Patache</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr"/>
+          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D251" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12383,11 +12383,11 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Central Patache S.A.</t>
+          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>150000</v>
+        <v>350</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12396,12 +12396,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -15964,7 +15964,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15974,16 +15974,16 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Portuaria de Iquique</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>200</v>
+        <v>4354</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -15992,12 +15992,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16012,7 +16012,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16022,16 +16022,16 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Empresa Portuaria de Iquique</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>4354</v>
+        <v>200</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16040,12 +16040,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -20524,7 +20524,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
+          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20539,11 +20539,11 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Santa Marta Ltda.</t>
+          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>2500</v>
+        <v>1214</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20552,12 +20552,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20572,7 +20572,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
+          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20587,11 +20587,11 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
+          <t>Santa Marta Ltda.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>1214</v>
+        <v>2500</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20600,12 +20600,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -24220,7 +24220,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
+          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -24235,11 +24235,11 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Lucia Cáceres nuñez</t>
         </is>
       </c>
       <c r="F498" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G498" t="inlineStr">
         <is>
@@ -24253,7 +24253,7 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
@@ -24268,7 +24268,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
+          <t>Planta Emulsión - Explonor S.A.</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24283,11 +24283,11 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>Lucia Cáceres nuñez</t>
+          <t>EXPLONOR S.A.</t>
         </is>
       </c>
       <c r="F499" t="n">
-        <v>2500</v>
+        <v>200</v>
       </c>
       <c r="G499" t="inlineStr">
         <is>
@@ -24301,7 +24301,7 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -24316,7 +24316,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Planta Emulsión - Explonor S.A.</t>
+          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24331,11 +24331,11 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>EXPLONOR S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN NEGREIROS</t>
+          <t>Optimización Operacional Planta elaboradora de Harina y Aceite de Pescado</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,30 +434,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SCM COSAYACH YODO</t>
+          <t>Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>03/10/2022</t>
+          <t>18/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157207174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157142922&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Optimización Operacional Planta elaboradora de Harina y Aceite de Pescado</t>
+          <t>AMPLIACIÓN NEGREIROS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -482,30 +482,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Camanchaca S.A.</t>
+          <t>SCM COSAYACH YODO</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>30/09/2022</t>
+          <t>18/11/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157142922&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157207174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Optimización Operacional Planta elaboradora de Harina y Aceite de Pescado</t>
+          <t>AMPLIACIÓN NEGREIROS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,16 +434,16 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Camanchaca S.A.</t>
+          <t>SCM COSAYACH YODO</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157142922&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157207174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN NEGREIROS</t>
+          <t>Optimización Operacional Planta elaboradora de Harina y Aceite de Pescado</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -482,30 +482,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SCM COSAYACH YODO</t>
+          <t>Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/11/2022</t>
+          <t>20/10/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157207174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157142922&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/11/2022</t>
+          <t>21/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,11 +8455,11 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -12276,14 +12276,10 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estudio de Impacto Ambiental Central Patache</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr"/>
       <c r="D249" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12291,11 +12287,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
+          <t>Central Patache S.A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>270</v>
+        <v>150000</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12304,12 +12300,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12324,7 +12320,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
+          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12343,7 +12339,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12357,7 +12353,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12372,10 +12368,14 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Central Patache</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr"/>
+          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D251" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12383,11 +12383,11 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Central Patache S.A.</t>
+          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>150000</v>
+        <v>350</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12396,12 +12396,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -15964,7 +15964,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15974,16 +15974,16 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Portuaria de Iquique</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>200</v>
+        <v>4354</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -15992,12 +15992,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16012,7 +16012,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16022,16 +16022,16 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Empresa Portuaria de Iquique</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>4354</v>
+        <v>200</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16040,12 +16040,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -20524,7 +20524,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
+          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20539,11 +20539,11 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Santa Marta Ltda.</t>
+          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>2500</v>
+        <v>1214</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20552,12 +20552,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20572,7 +20572,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
+          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20587,11 +20587,11 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
+          <t>Santa Marta Ltda.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>1214</v>
+        <v>2500</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20600,12 +20600,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -24220,7 +24220,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
+          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -24235,11 +24235,11 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Lucia Cáceres nuñez</t>
         </is>
       </c>
       <c r="F498" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G498" t="inlineStr">
         <is>
@@ -24253,7 +24253,7 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
@@ -24268,7 +24268,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
+          <t>Planta Emulsión - Explonor S.A.</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24283,11 +24283,11 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>Lucia Cáceres nuñez</t>
+          <t>EXPLONOR S.A.</t>
         </is>
       </c>
       <c r="F499" t="n">
-        <v>2500</v>
+        <v>200</v>
       </c>
       <c r="G499" t="inlineStr">
         <is>
@@ -24301,7 +24301,7 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -24316,7 +24316,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Planta Emulsión - Explonor S.A.</t>
+          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24331,11 +24331,11 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>EXPLONOR S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -11287,7 +11287,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F228" t="n">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -6727,7 +6727,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -6775,7 +6775,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -24331,7 +24331,7 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F500" t="n">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,11 +8455,11 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -12276,10 +12276,14 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Central Patache</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr"/>
+          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D249" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12287,11 +12291,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Central Patache S.A.</t>
+          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>150000</v>
+        <v>270</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12300,12 +12304,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12320,7 +12324,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
+          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12339,7 +12343,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12353,7 +12357,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12368,14 +12372,10 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estudio de Impacto Ambiental Central Patache</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr"/>
       <c r="D251" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12383,11 +12383,11 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
+          <t>Central Patache S.A.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>350</v>
+        <v>150000</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12396,12 +12396,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -15964,7 +15964,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15974,16 +15974,16 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Empresa Portuaria de Iquique</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>4354</v>
+        <v>200</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -15992,12 +15992,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16012,7 +16012,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16022,16 +16022,16 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Portuaria de Iquique</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>200</v>
+        <v>4354</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16040,12 +16040,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -20524,7 +20524,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
+          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20539,11 +20539,11 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
+          <t>Santa Marta Ltda.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>1214</v>
+        <v>2500</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20552,12 +20552,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20572,7 +20572,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
+          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20587,11 +20587,11 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Santa Marta Ltda.</t>
+          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>2500</v>
+        <v>1214</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20600,12 +20600,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -24220,7 +24220,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
+          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -24235,11 +24235,11 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>Lucia Cáceres nuñez</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F498" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G498" t="inlineStr">
         <is>
@@ -24253,7 +24253,7 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
@@ -24268,7 +24268,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Planta Emulsión - Explonor S.A.</t>
+          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24283,11 +24283,11 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>EXPLONOR S.A.</t>
+          <t>Lucia Cáceres nuñez</t>
         </is>
       </c>
       <c r="F499" t="n">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="G499" t="inlineStr">
         <is>
@@ -24301,7 +24301,7 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -24316,7 +24316,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
+          <t>Planta Emulsión - Explonor S.A.</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24331,11 +24331,11 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
+          <t>EXPLONOR S.A.</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,11 +8455,11 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -12276,14 +12276,10 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estudio de Impacto Ambiental Central Patache</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr"/>
       <c r="D249" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12291,11 +12287,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
+          <t>Central Patache S.A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>270</v>
+        <v>150000</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12304,12 +12300,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12324,7 +12320,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
+          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12343,7 +12339,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12357,7 +12353,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12372,10 +12368,14 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Central Patache</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr"/>
+          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D251" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12383,11 +12383,11 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Central Patache S.A.</t>
+          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>150000</v>
+        <v>350</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12396,12 +12396,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -15964,7 +15964,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15974,16 +15974,16 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Portuaria de Iquique</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>200</v>
+        <v>4354</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -15992,12 +15992,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16012,7 +16012,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16022,16 +16022,16 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Empresa Portuaria de Iquique</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>4354</v>
+        <v>200</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16040,12 +16040,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -20524,7 +20524,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
+          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20539,11 +20539,11 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Santa Marta Ltda.</t>
+          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>2500</v>
+        <v>1214</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20552,12 +20552,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20572,7 +20572,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
+          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20587,11 +20587,11 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
+          <t>Santa Marta Ltda.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>1214</v>
+        <v>2500</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20600,12 +20600,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -24220,7 +24220,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
+          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -24235,11 +24235,11 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
+          <t>Lucia Cáceres nuñez</t>
         </is>
       </c>
       <c r="F498" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G498" t="inlineStr">
         <is>
@@ -24253,7 +24253,7 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
@@ -24268,7 +24268,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
+          <t>Planta Emulsión - Explonor S.A.</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24283,11 +24283,11 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>Lucia Cáceres nuñez</t>
+          <t>EXPLONOR S.A.</t>
         </is>
       </c>
       <c r="F499" t="n">
-        <v>2500</v>
+        <v>200</v>
       </c>
       <c r="G499" t="inlineStr">
         <is>
@@ -24301,7 +24301,7 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -24316,7 +24316,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Planta Emulsión - Explonor S.A.</t>
+          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24331,11 +24331,11 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>EXPLONOR S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -12324,10 +12324,14 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Central Patache</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr"/>
+          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D250" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12335,11 +12339,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Central Patache S.A.</t>
+          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>150000</v>
+        <v>270</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12348,12 +12352,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12368,7 +12372,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
+          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12387,7 +12391,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12401,7 +12405,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12416,14 +12420,10 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estudio de Impacto Ambiental Central Patache</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr"/>
       <c r="D252" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12431,11 +12431,11 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
+          <t>Central Patache S.A.</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>350</v>
+        <v>150000</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12444,12 +12444,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -16012,7 +16012,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16022,16 +16022,16 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Empresa Portuaria de Iquique</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>4354</v>
+        <v>200</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16040,12 +16040,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16060,7 +16060,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16070,16 +16070,16 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Portuaria de Iquique</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>200</v>
+        <v>4354</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16088,12 +16088,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -20572,7 +20572,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
+          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20587,11 +20587,11 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
+          <t>Santa Marta Ltda.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>1214</v>
+        <v>2500</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20600,12 +20600,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20620,7 +20620,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
+          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20635,11 +20635,11 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Santa Marta Ltda.</t>
+          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>2500</v>
+        <v>1214</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20648,12 +20648,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -12324,14 +12324,10 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estudio de Impacto Ambiental Central Patache</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr"/>
       <c r="D250" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12339,11 +12335,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
+          <t>Central Patache S.A.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>270</v>
+        <v>150000</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12352,12 +12348,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12372,7 +12368,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
+          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12391,7 +12387,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12405,7 +12401,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12420,10 +12416,14 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Central Patache</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr"/>
+          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D252" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12431,11 +12431,11 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Central Patache S.A.</t>
+          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>150000</v>
+        <v>350</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12444,12 +12444,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -16012,7 +16012,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16022,16 +16022,16 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Portuaria de Iquique</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>200</v>
+        <v>4354</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16040,12 +16040,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16060,7 +16060,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16070,16 +16070,16 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Empresa Portuaria de Iquique</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>4354</v>
+        <v>200</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16088,12 +16088,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -20572,7 +20572,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
+          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20587,11 +20587,11 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Santa Marta Ltda.</t>
+          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>2500</v>
+        <v>1214</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20600,12 +20600,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20620,7 +20620,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
+          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20635,11 +20635,11 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
+          <t>Santa Marta Ltda.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>1214</v>
+        <v>2500</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20648,12 +20648,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/02/2023</t>
+          <t>23/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -12324,10 +12324,14 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Central Patache</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr"/>
+          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D250" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12335,11 +12339,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Central Patache S.A.</t>
+          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>150000</v>
+        <v>270</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12348,12 +12352,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12368,7 +12372,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
+          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12387,7 +12391,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12401,7 +12405,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12416,14 +12420,10 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estudio de Impacto Ambiental Central Patache</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr"/>
       <c r="D252" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12431,11 +12431,11 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
+          <t>Central Patache S.A.</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>350</v>
+        <v>150000</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12444,12 +12444,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -16012,7 +16012,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16022,16 +16022,16 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Empresa Portuaria de Iquique</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>4354</v>
+        <v>200</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16040,12 +16040,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16060,7 +16060,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16070,16 +16070,16 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Portuaria de Iquique</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>200</v>
+        <v>4354</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16088,12 +16088,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -20572,7 +20572,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
+          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20587,11 +20587,11 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
+          <t>Santa Marta Ltda.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>1214</v>
+        <v>2500</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20600,12 +20600,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20620,7 +20620,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
+          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20635,11 +20635,11 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Santa Marta Ltda.</t>
+          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>2500</v>
+        <v>1214</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20648,12 +20648,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -24268,7 +24268,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
+          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24283,11 +24283,11 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>Lucia Cáceres nuñez</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F499" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G499" t="inlineStr">
         <is>
@@ -24301,7 +24301,7 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -24316,7 +24316,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Planta Emulsión - Explonor S.A.</t>
+          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24331,11 +24331,11 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>EXPLONOR S.A.</t>
+          <t>Lucia Cáceres nuñez</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24364,7 +24364,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
+          <t>Planta Emulsión - Explonor S.A.</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24379,11 +24379,11 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
+          <t>EXPLONOR S.A.</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -12324,14 +12324,10 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estudio de Impacto Ambiental Central Patache</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr"/>
       <c r="D250" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12339,11 +12335,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
+          <t>Central Patache S.A.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>270</v>
+        <v>150000</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12352,12 +12348,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12372,7 +12368,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
+          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12391,7 +12387,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12405,7 +12401,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12420,10 +12416,14 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Central Patache</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr"/>
+          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D252" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12431,11 +12431,11 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Central Patache S.A.</t>
+          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>150000</v>
+        <v>350</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12444,12 +12444,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -16012,7 +16012,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16022,16 +16022,16 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Portuaria de Iquique</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>200</v>
+        <v>4354</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16040,12 +16040,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16060,7 +16060,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16070,16 +16070,16 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Empresa Portuaria de Iquique</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>4354</v>
+        <v>200</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16088,12 +16088,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -20572,7 +20572,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
+          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20587,11 +20587,11 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Santa Marta Ltda.</t>
+          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>2500</v>
+        <v>1214</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20600,12 +20600,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20620,7 +20620,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
+          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20635,11 +20635,11 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
+          <t>Santa Marta Ltda.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>1214</v>
+        <v>2500</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20648,12 +20648,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -24268,7 +24268,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
+          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24283,11 +24283,11 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
+          <t>Lucia Cáceres nuñez</t>
         </is>
       </c>
       <c r="F499" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G499" t="inlineStr">
         <is>
@@ -24301,7 +24301,7 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -24316,7 +24316,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
+          <t>Planta Emulsión - Explonor S.A.</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24331,11 +24331,11 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>Lucia Cáceres nuñez</t>
+          <t>EXPLONOR S.A.</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>2500</v>
+        <v>200</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24364,7 +24364,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Planta Emulsión - Explonor S.A.</t>
+          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24379,11 +24379,11 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>EXPLONOR S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN NEGREIROS</t>
+          <t>Ampliación Negreiros</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -12324,14 +12324,10 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estudio de Impacto Ambiental Central Patache</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr"/>
       <c r="D250" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12339,11 +12335,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
+          <t>Central Patache S.A.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>270</v>
+        <v>150000</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12352,12 +12348,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12372,7 +12368,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
+          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12391,7 +12387,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12405,7 +12401,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12420,10 +12416,14 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Central Patache</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr"/>
+          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D252" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12431,11 +12431,11 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Central Patache S.A.</t>
+          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>150000</v>
+        <v>350</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12444,12 +12444,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -16012,7 +16012,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16022,16 +16022,16 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Portuaria de Iquique</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>200</v>
+        <v>4354</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16040,12 +16040,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16060,7 +16060,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16070,16 +16070,16 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Empresa Portuaria de Iquique</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>4354</v>
+        <v>200</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16088,12 +16088,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -20572,7 +20572,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
+          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20587,11 +20587,11 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Santa Marta Ltda.</t>
+          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>2500</v>
+        <v>1214</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20600,12 +20600,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20620,7 +20620,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
+          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20635,11 +20635,11 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
+          <t>Santa Marta Ltda.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>1214</v>
+        <v>2500</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20648,12 +20648,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -788,7 +788,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -12372,10 +12372,14 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Central Patache</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr"/>
+          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D251" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12383,11 +12387,11 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Central Patache S.A.</t>
+          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>150000</v>
+        <v>270</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12396,12 +12400,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12416,7 +12420,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
+          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12435,7 +12439,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12449,7 +12453,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -12464,14 +12468,10 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estudio de Impacto Ambiental Central Patache</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr"/>
       <c r="D253" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12479,11 +12479,11 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
+          <t>Central Patache S.A.</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>350</v>
+        <v>150000</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12492,12 +12492,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -16060,7 +16060,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16070,16 +16070,16 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Empresa Portuaria de Iquique</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>4354</v>
+        <v>200</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16088,12 +16088,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16108,7 +16108,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16118,16 +16118,16 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Portuaria de Iquique</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>200</v>
+        <v>4354</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16136,12 +16136,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -20620,7 +20620,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
+          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20635,11 +20635,11 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
+          <t>Santa Marta Ltda.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>1214</v>
+        <v>2500</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20648,12 +20648,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20668,7 +20668,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
+          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20683,11 +20683,11 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Santa Marta Ltda.</t>
+          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>2500</v>
+        <v>1214</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20696,12 +20696,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -24316,7 +24316,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
+          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24331,11 +24331,11 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>Lucia Cáceres nuñez</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24364,7 +24364,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Planta Emulsión - Explonor S.A.</t>
+          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24379,11 +24379,11 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>EXPLONOR S.A.</t>
+          <t>Lucia Cáceres nuñez</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -12372,14 +12372,10 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estudio de Impacto Ambiental Central Patache</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr"/>
       <c r="D251" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12387,11 +12383,11 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
+          <t>Central Patache S.A.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>270</v>
+        <v>150000</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12400,12 +12396,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12420,7 +12416,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
+          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12439,7 +12435,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12453,7 +12449,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -12468,10 +12464,14 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Central Patache</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr"/>
+          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D253" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12479,11 +12479,11 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Central Patache S.A.</t>
+          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>150000</v>
+        <v>350</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12492,12 +12492,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -16060,7 +16060,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16070,16 +16070,16 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Portuaria de Iquique</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>200</v>
+        <v>4354</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16088,12 +16088,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16108,7 +16108,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16118,16 +16118,16 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Empresa Portuaria de Iquique</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>4354</v>
+        <v>200</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16136,12 +16136,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -20620,7 +20620,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
+          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20635,11 +20635,11 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Santa Marta Ltda.</t>
+          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>2500</v>
+        <v>1214</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20648,12 +20648,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20668,7 +20668,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
+          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20683,11 +20683,11 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
+          <t>Santa Marta Ltda.</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>1214</v>
+        <v>2500</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20696,12 +20696,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -24316,7 +24316,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
+          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24331,11 +24331,11 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
+          <t>Lucia Cáceres nuñez</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24364,7 +24364,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
+          <t>Planta Emulsión - Explonor S.A.</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24379,11 +24379,11 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>Lucia Cáceres nuñez</t>
+          <t>EXPLONOR S.A.</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>2500</v>
+        <v>200</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Iquique.xlsx
+++ b/data/Iquique.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -12372,10 +12372,14 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Central Patache</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr"/>
+          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D251" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12383,11 +12387,11 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Central Patache S.A.</t>
+          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>150000</v>
+        <v>270</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12396,12 +12400,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12416,7 +12420,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012003) (e-seia)</t>
+          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12435,7 +12439,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12449,7 +12453,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -12464,14 +12468,10 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>ENGORDA DE OSTIÓN DEL NORTE EN EL SECTOR NORTE DE CALETA SAN MARCOS, IQUIQUE - I REGIÓN (SOLICITUD Nº 207012002) (e-seia)</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estudio de Impacto Ambiental Central Patache</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr"/>
       <c r="D253" t="inlineStr">
         <is>
           <t>Primera</t>
@@ -12479,11 +12479,11 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>CORPORACIÓN PRIVADA PARA EL DESARROLLO DE LA UNAP</t>
+          <t>Central Patache S.A.</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>350</v>
+        <v>150000</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12492,12 +12492,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3711484&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3708388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -16060,7 +16060,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16070,16 +16070,16 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Empresa Portuaria de Iquique</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>4354</v>
+        <v>200</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16088,12 +16088,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16108,7 +16108,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Relleno de la Poza Club de Botes Salvavidas - Empresa Portuaria Iquique Relleno de la Poza Club de Botes Salvavidas - EPI (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16118,16 +16118,16 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Portuaria de Iquique</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>200</v>
+        <v>4354</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16136,12 +16136,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -20620,7 +20620,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
+          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20635,11 +20635,11 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
+          <t>Santa Marta Ltda.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>1214</v>
+        <v>2500</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20648,12 +20648,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20668,7 +20668,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfúrico Punta Patache - Quebrada Blanca (e-seia)</t>
+          <t>CULTIVO EXTENSIVO DE OSTION DEL NORTE Y OSTRA DEL PACIFICO CALETA TOYO, IQUIQUE, I REGION DE TARAPACA (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20683,11 +20683,11 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Santa Marta Ltda.</t>
+          <t>Sociedad Comercial e Industrial Octamar Limitada</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>2500</v>
+        <v>1214</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20696,12 +20696,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=192365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -24316,7 +24316,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
+          <t>Transporte de Acido Sulfúrico Ruta Punta Patache - Quebrada Blanca</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24331,11 +24331,11 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>Lucia Cáceres nuñez</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24364,7 +24364,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Planta Emulsión - Explonor S.A.</t>
+          <t>Liceo Polivalente Sagrado Corazón Alto Hospicio-Iquique</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24379,11 +24379,11 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>EXPLONOR S.A.</t>
+          <t>Lucia Cáceres nuñez</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">
